--- a/data-raw/Kuviot.xlsx
+++ b/data-raw/Kuviot.xlsx
@@ -942,8 +942,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe4de2955dab29bb6467ea9f9d854cad">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="113de8c2206f9bc5dfd9173b40a5037e" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Asiakirja" ma:contentTypeID="0x010100DE10FD119F3C664B96DD054879BCD7CC" ma:contentTypeVersion="6" ma:contentTypeDescription="Luo uusi asiakirja." ma:contentTypeScope="" ma:versionID="f5646ceb200daae7218f17100941a68c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84ef26b6-ae16-4e4e-9392-b7fef9600143" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="33bd753129a1708488b63108d2e37b5d" ns2:_="">
     <xsd:import namespace="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -1009,8 +1009,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Sisältölaji"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Otsikko"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -1117,19 +1117,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FF420D5-744A-4B1F-8C34-D1477AC5AE4F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="84ef26b6-ae16-4e4e-9392-b7fef9600143"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9076A65E-590A-4321-998A-5D2E1069137E}"/>
 </file>